--- a/mid_df_main.xlsx
+++ b/mid_df_main.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pro\Py-DOta\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD70376B-A953-4D51-8D73-6D4B447D8ECD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>FS</t>
   </si>
@@ -164,16 +158,13 @@
   </si>
   <si>
     <t>Faker-</t>
-  </si>
-  <si>
-    <t>201594424</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,12 +216,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -239,14 +227,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -293,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,27 +305,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,24 +339,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -570,19 +514,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13.9296875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,12 +535,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>227.31965393756801</v>
+        <v>227.319653937568</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -613,12 +552,12 @@
         <v>15.15464359583787</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>393.60625539809212</v>
+        <v>393.6062553980921</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -627,15 +566,15 @@
         <v>29</v>
       </c>
       <c r="E3">
-        <v>13.572629496485931</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>13.57262949648593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>135.41721099251231</v>
+        <v>135.4172109925123</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -647,7 +586,7 @@
         <v>13.54172109925123</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -664,12 +603,12 @@
         <v>13.07414368485809</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>560.49620704568406</v>
+        <v>560.4962070456841</v>
       </c>
       <c r="C6">
         <v>33</v>
@@ -678,15 +617,15 @@
         <v>44</v>
       </c>
       <c r="E6">
-        <v>12.738550160129179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>12.73855016012918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>201594424</v>
       </c>
       <c r="B7">
-        <v>210.26444803963111</v>
+        <v>210.2644480396311</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -698,12 +637,12 @@
         <v>12.36849694350771</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>84.338868597416038</v>
+        <v>84.33886859741604</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -712,10 +651,10 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>12.048409799630861</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>12.04840979963086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -732,12 +671,12 @@
         <v>11.87620140483064</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>141.43010123693341</v>
+        <v>141.4301012369334</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -746,15 +685,15 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <v>11.785841769744451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>11.78584176974445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>223.73063376886239</v>
+        <v>223.7306337688624</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -766,12 +705,12 @@
         <v>11.77529651415065</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>604.38713108266177</v>
+        <v>604.3871310826618</v>
       </c>
       <c r="C12">
         <v>33</v>
@@ -783,12 +722,12 @@
         <v>11.62282944389734</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>278.13581600584172</v>
+        <v>278.1358160058417</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -797,15 +736,15 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>11.588992333576741</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>11.58899233357674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>182.69418393978839</v>
+        <v>182.6941839397884</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -817,12 +756,12 @@
         <v>11.41838649623678</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>262.54965959946378</v>
+        <v>262.5496595994638</v>
       </c>
       <c r="C15">
         <v>25</v>
@@ -834,12 +773,12 @@
         <v>11.41520259128103</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>125.51884200541519</v>
+        <v>125.5188420054152</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -848,15 +787,15 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>11.410803818674109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+        <v>11.41080381867411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>403.54942479307653</v>
+        <v>403.5494247930765</v>
       </c>
       <c r="C17">
         <v>31</v>
@@ -868,12 +807,12 @@
         <v>11.20970624425212</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>718.72698663131337</v>
+        <v>718.7269866313134</v>
       </c>
       <c r="C18">
         <v>33</v>
@@ -882,15 +821,15 @@
         <v>65</v>
       </c>
       <c r="E18">
-        <v>11.057338255866361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>11.05733825586636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>264.44672241614501</v>
+        <v>264.446722416145</v>
       </c>
       <c r="C19">
         <v>13</v>
@@ -902,12 +841,12 @@
         <v>11.01861343400604</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>294.73367745073432</v>
+        <v>294.7336774507343</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -916,15 +855,15 @@
         <v>27</v>
       </c>
       <c r="E20">
-        <v>10.916062127804979</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+        <v>10.91606212780498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>665.67336378384414</v>
+        <v>665.6733637838441</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -933,15 +872,15 @@
         <v>61</v>
       </c>
       <c r="E21">
-        <v>10.912678094817119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>10.91267809481712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>139.98484797679501</v>
+        <v>139.984847976795</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -950,15 +889,15 @@
         <v>13</v>
       </c>
       <c r="E22">
-        <v>10.768065228984231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+        <v>10.76806522898423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>615.12161563600102</v>
+        <v>615.121615636001</v>
       </c>
       <c r="C23">
         <v>36</v>
@@ -967,15 +906,15 @@
         <v>58</v>
       </c>
       <c r="E23">
-        <v>10.605545097172429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+        <v>10.60554509717243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>148.09141126094261</v>
+        <v>148.0914112609426</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -987,12 +926,12 @@
         <v>10.57795794721018</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>261.85963689791407</v>
+        <v>261.8596368979141</v>
       </c>
       <c r="C25">
         <v>33</v>
@@ -1001,15 +940,15 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>10.474385475916559</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+        <v>10.47438547591656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>521.09075238501077</v>
+        <v>521.0907523850108</v>
       </c>
       <c r="C26">
         <v>33</v>
@@ -1021,12 +960,12 @@
         <v>10.02097600740405</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>380.29079825929301</v>
+        <v>380.290798259293</v>
       </c>
       <c r="C27">
         <v>28</v>
@@ -1038,7 +977,7 @@
         <v>10.00765258577087</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1052,15 +991,15 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>9.9119613187554823</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+        <v>9.911961318755482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>322.09185596286181</v>
+        <v>322.0918559628618</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -1069,15 +1008,15 @@
         <v>33</v>
       </c>
       <c r="E29">
-        <v>9.7603592716018728</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+        <v>9.760359271601873</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>106.95410871730191</v>
+        <v>106.9541087173019</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1086,10 +1025,10 @@
         <v>11</v>
       </c>
       <c r="E30">
-        <v>9.7231007924819881</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+        <v>9.723100792481988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1103,15 +1042,15 @@
         <v>22</v>
       </c>
       <c r="E31">
-        <v>9.5986355423585916</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+        <v>9.598635542358592</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>180.67432625153009</v>
+        <v>180.6743262515301</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -1120,15 +1059,15 @@
         <v>19</v>
       </c>
       <c r="E32">
-        <v>9.5091750658700054</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+        <v>9.509175065870005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B33">
-        <v>84.476331648309213</v>
+        <v>84.47633164830921</v>
       </c>
       <c r="C33">
         <v>8</v>
@@ -1137,10 +1076,10 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>9.3862590720343562</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+        <v>9.386259072034356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1154,15 +1093,15 @@
         <v>29</v>
       </c>
       <c r="E34">
-        <v>9.3133994476797071</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+        <v>9.313399447679707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>74.256560387131202</v>
+        <v>74.2565603871312</v>
       </c>
       <c r="C35">
         <v>20</v>
@@ -1171,15 +1110,15 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>9.2820700483914003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+        <v>9.2820700483914</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B36">
-        <v>166.83692109135129</v>
+        <v>166.8369210913513</v>
       </c>
       <c r="C36">
         <v>28</v>
@@ -1188,15 +1127,15 @@
         <v>18</v>
       </c>
       <c r="E36">
-        <v>9.2687178384084064</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+        <v>9.268717838408406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B37">
-        <v>240.43834420459629</v>
+        <v>240.4383442045963</v>
       </c>
       <c r="C37">
         <v>33</v>
@@ -1205,15 +1144,15 @@
         <v>26</v>
       </c>
       <c r="E37">
-        <v>9.2476286232537053</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+        <v>9.247628623253705</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B38">
-        <v>119.54032714865551</v>
+        <v>119.5403271486555</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -1222,15 +1161,15 @@
         <v>13</v>
       </c>
       <c r="E38">
-        <v>9.1954097806658108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+        <v>9.195409780665811</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>135.09024264166541</v>
+        <v>135.0902426416654</v>
       </c>
       <c r="C39">
         <v>28</v>
@@ -1242,12 +1181,12 @@
         <v>8.44314016510409</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B40">
-        <v>109.75289187871751</v>
+        <v>109.7528918787175</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -1256,15 +1195,15 @@
         <v>13</v>
       </c>
       <c r="E40">
-        <v>8.4425301445167324</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+        <v>8.442530144516732</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B41">
-        <v>158.38045949926001</v>
+        <v>158.38045949926</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1273,15 +1212,15 @@
         <v>19</v>
       </c>
       <c r="E41">
-        <v>8.3358136578557911</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+        <v>8.335813657855791</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B42">
-        <v>49.578412134906273</v>
+        <v>49.57841213490627</v>
       </c>
       <c r="C42">
         <v>8</v>
@@ -1290,15 +1229,15 @@
         <v>6</v>
       </c>
       <c r="E42">
-        <v>8.2630686891510461</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+        <v>8.263068689151046</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B43">
-        <v>63.052101384620457</v>
+        <v>63.05210138462046</v>
       </c>
       <c r="C43">
         <v>8</v>
@@ -1307,15 +1246,15 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <v>7.8815126730775571</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+        <v>7.881512673077557</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B44">
-        <v>68.406689078839378</v>
+        <v>68.40668907883938</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -1327,12 +1266,12 @@
         <v>7.600743230982153</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B45">
-        <v>55.068283331693969</v>
+        <v>55.06828333169397</v>
       </c>
       <c r="C45">
         <v>20</v>
@@ -1341,15 +1280,15 @@
         <v>8</v>
       </c>
       <c r="E45">
-        <v>6.8835354164617462</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+        <v>6.883535416461746</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B46">
-        <v>27.033259522462831</v>
+        <v>27.03325952246283</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1358,11 +1297,10 @@
         <v>6</v>
       </c>
       <c r="E46">
-        <v>4.5055432537438049</v>
+        <v>4.505543253743805</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mid_df_main.xlsx
+++ b/mid_df_main.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>FS</t>
   </si>
@@ -34,30 +34,33 @@
     <t>MagicaL</t>
   </si>
   <si>
+    <t>Chessie</t>
+  </si>
+  <si>
+    <t>Abed</t>
+  </si>
+  <si>
+    <t>Nisha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J E I M A R I </t>
+  </si>
+  <si>
+    <t>小可</t>
+  </si>
+  <si>
+    <t>SumaiL</t>
+  </si>
+  <si>
     <t>Limmp</t>
   </si>
   <si>
-    <t>Chessie</t>
-  </si>
-  <si>
-    <t>Abed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J E I M A R I </t>
-  </si>
-  <si>
-    <t>小可</t>
-  </si>
-  <si>
     <t>fn</t>
   </si>
   <si>
     <t>430</t>
   </si>
   <si>
-    <t>SumaiL</t>
-  </si>
-  <si>
     <t>AhJit</t>
   </si>
   <si>
@@ -82,18 +85,18 @@
     <t>_Mikoto_</t>
   </si>
   <si>
+    <t>Xm</t>
+  </si>
+  <si>
+    <t>Ori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Luck </t>
+  </si>
+  <si>
     <t>Fata</t>
   </si>
   <si>
-    <t>Xm</t>
-  </si>
-  <si>
-    <t>Ori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris Luck </t>
-  </si>
-  <si>
     <t>Bryle</t>
   </si>
   <si>
@@ -109,33 +112,36 @@
     <t>Afoninje</t>
   </si>
   <si>
+    <t>Moonn</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
     <t>CCnC</t>
   </si>
   <si>
+    <t>4dr &lt;3 Déia</t>
+  </si>
+  <si>
+    <t>Dendi</t>
+  </si>
+  <si>
+    <t>| Draken-_-</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>w33</t>
+  </si>
+  <si>
     <t>Topson</t>
   </si>
   <si>
-    <t>Dendi</t>
-  </si>
-  <si>
-    <t>一</t>
-  </si>
-  <si>
-    <t>| Draken-_-</t>
-  </si>
-  <si>
     <t>MATUMBAMAN</t>
   </si>
   <si>
-    <t>w33</t>
-  </si>
-  <si>
-    <t>Moonn</t>
-  </si>
-  <si>
     <t>YawaR</t>
   </si>
   <si>
@@ -149,6 +155,9 @@
   </si>
   <si>
     <t>Timado</t>
+  </si>
+  <si>
+    <t>kodos-</t>
   </si>
   <si>
     <t>hFn k3</t>
@@ -515,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,16 +583,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>135.4172109925123</v>
+        <v>143.815580533439</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>13.54172109925123</v>
+        <v>13.07414368485809</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,50 +600,50 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>143.815580533439</v>
+        <v>622.6148198856745</v>
       </c>
       <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>12.45229639771349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>201594424</v>
+      </c>
+      <c r="B6">
+        <v>210.2644480396311</v>
+      </c>
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>13.07414368485809</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>12.36849694350771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>560.4962070456841</v>
-      </c>
-      <c r="C6">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>44</v>
-      </c>
-      <c r="E6">
-        <v>12.73855016012918</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>201594424</v>
-      </c>
       <c r="B7">
-        <v>210.2644480396311</v>
+        <v>194.9083048153606</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>12.36849694350771</v>
+        <v>12.18176905096004</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -659,16 +668,16 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>273.1526323111047</v>
+        <v>503.5703066322106</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E9">
-        <v>11.87620140483064</v>
+        <v>11.98976920552882</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -676,16 +685,16 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>141.4301012369334</v>
+        <v>795.1177358204511</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E10">
-        <v>11.78584176974445</v>
+        <v>11.86742889284255</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -693,16 +702,16 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>223.7306337688624</v>
+        <v>236.7331774912908</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>11.77529651415065</v>
+        <v>11.83665887456454</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -710,16 +719,16 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>604.3871310826618</v>
+        <v>141.4301012369334</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="E12">
-        <v>11.62282944389734</v>
+        <v>11.78584176974445</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -727,16 +736,16 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>278.1358160058417</v>
+        <v>223.7306337688624</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>11.58899233357674</v>
+        <v>11.77529651415065</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -744,16 +753,16 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>182.6941839397884</v>
+        <v>278.1358160058417</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>11.41838649623678</v>
+        <v>11.58899233357674</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -761,16 +770,16 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>262.5496595994638</v>
+        <v>182.6941839397884</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>11.41520259128103</v>
+        <v>11.41838649623678</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -778,16 +787,16 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>125.5188420054152</v>
+        <v>262.5496595994638</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>11.41080381867411</v>
+        <v>11.41520259128103</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -795,16 +804,16 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>403.5494247930765</v>
+        <v>125.5188420054152</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E17">
-        <v>11.20970624425212</v>
+        <v>11.41080381867411</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -812,16 +821,16 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>718.7269866313134</v>
+        <v>403.5494247930765</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="E18">
-        <v>11.05733825586636</v>
+        <v>11.20970624425212</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -829,16 +838,16 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>264.446722416145</v>
+        <v>851.056595955431</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="E19">
-        <v>11.01861343400604</v>
+        <v>11.19811310467672</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -846,16 +855,16 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>294.7336774507343</v>
+        <v>264.446722416145</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>10.91606212780498</v>
+        <v>11.01861343400604</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -863,16 +872,16 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>665.6733637838441</v>
+        <v>294.7336774507343</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>10.91267809481712</v>
+        <v>10.91606212780498</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -897,16 +906,16 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>615.121615636001</v>
+        <v>750.8454423568251</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D23">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E23">
-        <v>10.60554509717243</v>
+        <v>10.72636346224036</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -931,16 +940,16 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>261.8596368979141</v>
+        <v>807.9741470712329</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E25">
-        <v>10.47438547591656</v>
+        <v>10.49317074118484</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -948,16 +957,16 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>521.0907523850108</v>
+        <v>261.8596368979141</v>
       </c>
       <c r="C26">
         <v>33</v>
       </c>
       <c r="D26">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>10.02097600740405</v>
+        <v>10.47438547591656</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -965,16 +974,16 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>380.290798259293</v>
+        <v>707.9299802840181</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E27">
-        <v>10.00765258577087</v>
+        <v>10.41073500417674</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -982,16 +991,16 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>148.6794197813322</v>
+        <v>380.290798259293</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E28">
-        <v>9.911961318755482</v>
+        <v>10.00765258577087</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -999,16 +1008,16 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>322.0918559628618</v>
+        <v>148.6794197813322</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>9.760359271601873</v>
+        <v>9.911961318755482</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1016,16 +1025,16 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>106.9541087173019</v>
+        <v>322.0918559628618</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E30">
-        <v>9.723100792481988</v>
+        <v>9.760359271601873</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1033,16 +1042,16 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>211.169981931889</v>
+        <v>214.5299565160425</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D31">
         <v>22</v>
       </c>
       <c r="E31">
-        <v>9.598635542358592</v>
+        <v>9.751361659820116</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1050,16 +1059,16 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>180.6743262515301</v>
+        <v>106.9541087173019</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E32">
-        <v>9.509175065870005</v>
+        <v>9.723100792481988</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1067,16 +1076,16 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>84.47633164830921</v>
+        <v>211.169981931889</v>
       </c>
       <c r="C33">
         <v>8</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E33">
-        <v>9.386259072034356</v>
+        <v>9.598635542358592</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1084,16 +1093,16 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>270.0885839827115</v>
+        <v>66.31480507374468</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E34">
-        <v>9.313399447679707</v>
+        <v>9.473543581963526</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1101,16 +1110,16 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>74.2565603871312</v>
+        <v>84.47633164830921</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>9.2820700483914</v>
+        <v>9.386259072034356</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1118,16 +1127,16 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>166.8369210913513</v>
+        <v>74.2565603871312</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E36">
-        <v>9.268717838408406</v>
+        <v>9.2820700483914</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1135,16 +1144,16 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>240.4383442045963</v>
+        <v>354.0692561586003</v>
       </c>
       <c r="C37">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E37">
-        <v>9.247628623253705</v>
+        <v>9.078698875861546</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1152,16 +1161,16 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>119.5403271486555</v>
+        <v>299.8261416149526</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E38">
-        <v>9.195409780665811</v>
+        <v>8.818415929851547</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1169,16 +1178,16 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>135.0902426416654</v>
+        <v>277.0178318552783</v>
       </c>
       <c r="C39">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E39">
-        <v>8.44314016510409</v>
+        <v>8.656807245477447</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1186,16 +1195,16 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>109.7528918787175</v>
+        <v>381.1183383920733</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E40">
-        <v>8.442530144516732</v>
+        <v>8.46929640871274</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1203,16 +1212,16 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>158.38045949926</v>
+        <v>135.0902426416654</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>8.335813657855791</v>
+        <v>8.44314016510409</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1220,16 +1229,16 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>49.57841213490627</v>
+        <v>109.7528918787175</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E42">
-        <v>8.263068689151046</v>
+        <v>8.442530144516732</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1237,16 +1246,16 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>63.05210138462046</v>
+        <v>210.3753633477911</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E43">
-        <v>7.881512673077557</v>
+        <v>8.415014533911645</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1254,16 +1263,16 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>68.40668907883938</v>
+        <v>49.57841213490627</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>7.600743230982153</v>
+        <v>8.263068689151046</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1271,16 +1280,16 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>55.06828333169397</v>
+        <v>63.05210138462046</v>
       </c>
       <c r="C45">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D45">
         <v>8</v>
       </c>
       <c r="E45">
-        <v>6.883535416461746</v>
+        <v>7.881512673077557</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1288,15 +1297,66 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>27.03325952246283</v>
+        <v>38.23544579454546</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>7.647089158909091</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>68.40668907883938</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>7.600743230982153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>55.06828333169397</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>6.883535416461746</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>27.03325952246283</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
         <v>6</v>
       </c>
-      <c r="E46">
+      <c r="E49">
         <v>4.505543253743805</v>
       </c>
     </row>
